--- a/spreadsheet/macrofree/redis_resiliency_checklist.es.xlsx
+++ b/spreadsheet/macrofree/redis_resiliency_checklist.es.xlsx
@@ -1059,12 +1059,12 @@
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="21" t="inlineStr">
         <is>
-          <t>Redundancia de zona</t>
+          <t>Gestión de operaciones</t>
         </is>
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Zonas de disponibilidad</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
@@ -1101,12 +1101,12 @@
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="21" t="inlineStr">
         <is>
-          <t>Persistencia</t>
+          <t>Gestión de operaciones</t>
         </is>
       </c>
       <c r="B9" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Persistencia de datos</t>
         </is>
       </c>
       <c r="C9" s="21" t="inlineStr">
@@ -1124,7 +1124,7 @@
       <c r="G9" s="21" t="n"/>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-cache-for-redis/cache-how-to-premium-persistence?tabs=premium</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-cache-for-redis/cache-high-availability#persistence</t>
         </is>
       </c>
       <c r="I9" s="15" t="n"/>
@@ -1143,12 +1143,12 @@
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="21" t="inlineStr">
         <is>
-          <t>Persistencia</t>
+          <t>Gestión de operaciones</t>
         </is>
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Almacenamiento con redundancia geográfica</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
@@ -1166,7 +1166,7 @@
       <c r="G10" s="21" t="n"/>
       <c r="H10" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-cache-for-redis/cache-how-to-premium-persistence?tabs=premium</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-cache-for-redis/cache-high-availability#storage-account-for-persistence</t>
         </is>
       </c>
       <c r="I10" s="15" t="n"/>
@@ -1185,12 +1185,12 @@
     <row r="11" ht="16.5" customHeight="1">
       <c r="A11" s="21" t="inlineStr">
         <is>
+          <t>Gestión de operaciones</t>
+        </is>
+      </c>
+      <c r="B11" s="21" t="inlineStr">
+        <is>
           <t>Replicación geográfica</t>
-        </is>
-      </c>
-      <c r="B11" s="21" t="inlineStr">
-        <is>
-          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C11" s="21" t="inlineStr">
@@ -5998,7 +5998,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Redundancia de zona</t>
+          <t>Gestión de identidades y accesos</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -6035,7 +6035,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Persistencia</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -6062,7 +6062,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Replicación geográfica</t>
+          <t>Gestión de operaciones</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -6082,6 +6082,11 @@
           <t>No es necesario</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Automatización de la plataforma</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>Recomendación entendida, pero no necesaria por los requisitos actuales</t>
@@ -6097,6 +6102,11 @@
       <c r="B6" s="10" t="inlineStr">
         <is>
           <t>N/A</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">

--- a/spreadsheet/macrofree/redis_resiliency_checklist.es.xlsx
+++ b/spreadsheet/macrofree/redis_resiliency_checklist.es.xlsx
@@ -1059,21 +1059,25 @@
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="21" t="inlineStr">
         <is>
-          <t>Gestión de operaciones</t>
+          <t>BC y DR</t>
         </is>
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>Zonas de disponibilidad</t>
+          <t>Alta disponibilidad</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Azure Cache for Redis admite configuraciones con redundancia de zona en los niveles Premium y Enterprise. Una caché con redundancia de zona puede colocar sus nodos en diferentes zonas de disponibilidad de Azure en la misma región. Elimina la interrupción del centro de datos o de la zona de disponibilidad como único punto de error y aumenta la disponibilidad general de la memoria caché.</t>
+          <t>Habilite la redundancia de zona para Azure Cache for Redis. Azure Cache for Redis admite configuraciones con redundancia de zona en los niveles Premium y Enterprise. Una caché con redundancia de zona puede colocar sus nodos en diferentes zonas de disponibilidad de Azure en la misma región. Elimina la interrupción del centro de datos o de la zona de disponibilidad como único punto de error y aumenta la disponibilidad general de la memoria caché.</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
-      <c r="E8" s="21" t="n"/>
+      <c r="E8" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -1101,21 +1105,25 @@
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="21" t="inlineStr">
         <is>
-          <t>Gestión de operaciones</t>
+          <t>BC y DR</t>
         </is>
       </c>
       <c r="B9" s="21" t="inlineStr">
         <is>
-          <t>Persistencia de datos</t>
+          <t>Alta disponibilidad</t>
         </is>
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Dado que los datos de caché se almacenan en la memoria, un error poco frecuente y no planeado de varios nodos puede hacer que se eliminen todos los datos. Para evitar la pérdida completa de datos, la persistencia de Redis permite tomar instantáneas periódicas de los datos en memoria y almacenarlas en la cuenta de almacenamiento.</t>
+          <t>Configure la persistencia de datos para una instancia de Azure Cache for Redis. Dado que los datos de caché se almacenan en la memoria, un error poco frecuente y no planeado de varios nodos puede hacer que se eliminen todos los datos. Para evitar la pérdida completa de datos, la persistencia de Redis permite tomar instantáneas periódicas de los datos en memoria y almacenarlas en la cuenta de almacenamiento.</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
-      <c r="E9" s="21" t="n"/>
+      <c r="E9" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -1143,12 +1151,12 @@
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="21" t="inlineStr">
         <is>
-          <t>Gestión de operaciones</t>
+          <t>BC y DR</t>
         </is>
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>Almacenamiento con redundancia geográfica</t>
+          <t>Alta disponibilidad</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
@@ -1157,7 +1165,11 @@
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
-      <c r="E10" s="21" t="n"/>
+      <c r="E10" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -1185,21 +1197,25 @@
     <row r="11" ht="16.5" customHeight="1">
       <c r="A11" s="21" t="inlineStr">
         <is>
-          <t>Gestión de operaciones</t>
+          <t>BC y DR</t>
         </is>
       </c>
       <c r="B11" s="21" t="inlineStr">
         <is>
-          <t>Replicación geográfica</t>
+          <t>Alta disponibilidad</t>
         </is>
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>La replicación geográfica es un mecanismo para vincular dos o más instancias de Azure Cache for Redis, que normalmente abarcan dos regiones de Azure. La replicación geográfica está diseñada principalmente para la recuperación ante desastres entre regiones. Dos instancias de caché de nivel Premium se conectan a través de la replicación geográfica de una manera que proporciona lecturas y escrituras en la caché principal, y esos datos se replican en la caché secundaria.</t>
+          <t>Configure la replicación geográfica pasiva para instancias de Azure Cache for Redis Premium. La replicación geográfica es un mecanismo para vincular dos o más instancias de Azure Cache for Redis, que normalmente abarcan dos regiones de Azure. La replicación geográfica está diseñada principalmente para la recuperación ante desastres entre regiones. Dos instancias de caché de nivel Premium se conectan a través de la replicación geográfica de una manera que proporciona lecturas y escrituras en la caché principal, y esos datos se replican en la caché secundaria.</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
-      <c r="E11" s="21" t="n"/>
+      <c r="E11" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -5922,7 +5938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -6062,7 +6078,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Gestión de operaciones</t>
+          <t>BC y DR</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -6084,7 +6100,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Automatización de la plataforma</t>
+          <t>Gobernanza y seguridad</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -6106,7 +6122,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gobernanza de costos</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -6117,6 +6133,20 @@
       <c r="K6" t="inlineStr">
         <is>
           <t>es</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Operaciones</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Implementación de aplicaciones</t>
         </is>
       </c>
     </row>
